--- a/medicine/Enfance/Hélène_Franck/Hélène_Franck.xlsx
+++ b/medicine/Enfance/Hélène_Franck/Hélène_Franck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9l%C3%A8ne_Franck</t>
+          <t>Hélène_Franck</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hélène Franck, née le 28 décembre 1932 à New York, est une écrivain, journaliste et traductrice vaudoise.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9l%C3%A8ne_Franck</t>
+          <t>Hélène_Franck</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née d'une famille d'origine française, devenue vaudoise par mariage, Hélène Frank pratique jeune l'écriture.
 Excepté divers métiers pratiqués pendant ses études universitaires aux États-Unis, elle a toujours travaillé dans le journalisme ou l'édition. Elle écrit de nombreux articles pour 24 heures, Le Journal de Genève, Construire ainsi que pour plusieurs revues féminines. Elle crée même la revue mensuelle Mon ami Pierrot.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9l%C3%A8ne_Franck</t>
+          <t>Hélène_Franck</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Hélène Franck », sur la base de données des personnalités vaudoises sur la plateforme « Patrinum » de la Bibliothèque cantonale et universitaire de Lausanne.
 Anne-Lise Delacrétaz, Daniel Maggetti, Écrivaines et écrivains d'aujourd'hui, p. 409</t>
